--- a/dokumente/User Stories.xlsx
+++ b/dokumente/User Stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\do-home1\kok_C\SOPRA\Sopra2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\do-home1\Ext_SOPRA_Horstkamp\Desktop\SOPRA\kickvinwl\dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="User-Stories" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'User-Stories'!$A$1:$J$25</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,6 +1330,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J25"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/dokumente/User Stories.xlsx
+++ b/dokumente/User Stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\do-home1\kok_C\SOPRA\Sopra2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\do-home1\Kok_C\SOPRA\Sopra2018\kickvinwl\dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,6 +632,10 @@
       <c r="H2">
         <v>8</v>
       </c>
+      <c r="I2">
+        <f>H2/4</f>
+        <v>2</v>
+      </c>
       <c r="J2" t="s">
         <v>70</v>
       </c>
@@ -662,13 +666,17 @@
       <c r="H3">
         <v>2</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I25" si="0">H3/4</f>
+        <v>0.5</v>
+      </c>
       <c r="J3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A25" si="0">A3+1</f>
+        <f t="shared" ref="A4:A25" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -692,13 +700,17 @@
       <c r="H4">
         <v>5</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
       <c r="J4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -722,13 +734,17 @@
       <c r="H5">
         <v>13</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
       <c r="J5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -752,13 +768,17 @@
       <c r="H6">
         <v>20</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -782,13 +802,17 @@
       <c r="H7">
         <v>13</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
       <c r="J7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -812,13 +836,17 @@
       <c r="H8">
         <v>5</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
       <c r="J8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -842,13 +870,17 @@
       <c r="H9">
         <v>3</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="J9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -872,13 +904,17 @@
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
       <c r="J10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -902,13 +938,17 @@
       <c r="H11">
         <v>13</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
       <c r="J11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -932,13 +972,17 @@
       <c r="H12">
         <v>2</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="J12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -962,13 +1006,17 @@
       <c r="H13">
         <v>5</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
       <c r="J13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -992,13 +1040,17 @@
       <c r="H14">
         <v>2</v>
       </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="J14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1022,13 +1074,17 @@
       <c r="H15">
         <v>8</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1052,13 +1108,17 @@
       <c r="H16">
         <v>5</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
       <c r="J16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1082,13 +1142,17 @@
       <c r="H17">
         <v>8</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1112,13 +1176,17 @@
       <c r="H18">
         <v>5</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
       <c r="J18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1142,13 +1210,17 @@
       <c r="H19">
         <v>8</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -1172,13 +1244,17 @@
       <c r="H20">
         <v>8</v>
       </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1202,13 +1278,17 @@
       <c r="H21">
         <v>5</v>
       </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
       <c r="J21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1232,13 +1312,17 @@
       <c r="H22">
         <v>3</v>
       </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="J22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -1262,13 +1346,17 @@
       <c r="H23">
         <v>5</v>
       </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
       <c r="J23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -1292,13 +1380,17 @@
       <c r="H24">
         <v>13</v>
       </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
       <c r="J24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -1321,6 +1413,10 @@
       </c>
       <c r="H25">
         <v>3</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="J25" t="s">
         <v>70</v>

--- a/dokumente/User Stories.xlsx
+++ b/dokumente/User Stories.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="User-Stories" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'User-Stories'!$A$1:$J$25</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,6 +1426,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J25"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
